--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1460684.518692554</v>
+        <v>1494477.666655634</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484442</v>
+        <v>278692.0725916866</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6565303.022190522</v>
+        <v>6659186.72853956</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.79429511437168</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>311.923900920074</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>159.5828560759984</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>72.45760154812729</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>162.5888681272535</v>
       </c>
       <c r="D5" t="n">
-        <v>358.4193849698333</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1063,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>34.06158462964585</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>63.08776037025526</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>330.169834715921</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>53.40840756313693</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1297,19 +1297,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>202.0948455505724</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.0254420454369</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131198</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1546,7 +1546,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>46.24876144511779</v>
+        <v>136.1614161296816</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>154.0254420454375</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1670,10 +1670,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="15">
@@ -1768,10 +1768,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>54.18430635300789</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>155.2022955251554</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>251.041867778481</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2087,7 +2087,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2248,16 +2248,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>26.70160847752048</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2485,13 +2485,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>118.5788473068465</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>10.04027365719926</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3007,10 +3007,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>144.4937753855477</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738366</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3092,7 +3092,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>113.7218216744503</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800598</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.10461178738987</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>332.420571660246</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3907,16 +3907,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>130.6556207749488</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3958,7 +3958,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068447</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -4031,7 +4031,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4043,7 +4043,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.8222093848745</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225346</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.640221925911</v>
+        <v>1343.932506313052</v>
       </c>
       <c r="C2" t="n">
-        <v>408.5045702952325</v>
+        <v>915.3508320503199</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6351895100811</v>
+        <v>486.7691577875882</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9008487087803</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4367,13 +4367,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111165</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>1366.191672757555</v>
       </c>
     </row>
     <row r="3">
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.1384727187784</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>688.8848573262783</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="W4" t="n">
-        <v>859.7685167902448</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="X4" t="n">
-        <v>614.3767621236573</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.9570914377655</v>
+        <v>940.4401176967148</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>484.0636759001414</v>
+        <v>704.1347176932403</v>
       </c>
       <c r="C5" t="n">
-        <v>449.9616071239688</v>
+        <v>539.9035377667216</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>508.0341569815701</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>478.2998161802693</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.90022853073</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1958.677925847747</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1958.677925847747</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1553.82247125878</v>
       </c>
       <c r="X5" t="n">
-        <v>914.6089660449918</v>
+        <v>1134.680007838091</v>
       </c>
       <c r="Y5" t="n">
-        <v>910.3632463850493</v>
+        <v>726.3938841377441</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>947.4105542393174</v>
+        <v>593.0357356940385</v>
       </c>
       <c r="C7" t="n">
-        <v>774.8488427225424</v>
+        <v>420.4740241772635</v>
       </c>
       <c r="D7" t="n">
-        <v>608.9708499240651</v>
+        <v>254.5960313787861</v>
       </c>
       <c r="E7" t="n">
-        <v>439.2128461748023</v>
+        <v>84.8380276295234</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>84.8380276295234</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>84.8380276295234</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>84.8380276295234</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>1612.040598310784</v>
+        <v>2095.080693055678</v>
       </c>
       <c r="U7" t="n">
-        <v>1612.040598310784</v>
+        <v>1816.647692308783</v>
       </c>
       <c r="V7" t="n">
-        <v>1612.040598310784</v>
+        <v>1529.692184179213</v>
       </c>
       <c r="W7" t="n">
-        <v>1612.040598310784</v>
+        <v>1257.665779765505</v>
       </c>
       <c r="X7" t="n">
-        <v>1366.648843644196</v>
+        <v>1012.274025098917</v>
       </c>
       <c r="Y7" t="n">
-        <v>1139.229172958305</v>
+        <v>784.8543544130257</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1343.515716940192</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C8" t="n">
-        <v>914.93404267746</v>
+        <v>859.8975998488716</v>
       </c>
       <c r="D8" t="n">
-        <v>486.3523684147282</v>
+        <v>828.0282190637201</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>798.2938782624194</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>549.0904269551045</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>376.5287154383295</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>210.6507226398521</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>688.8848573262783</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1108.937756271182</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1528.990655216085</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1270.644793662241</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1066.5085860354</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>794.482181621692</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>549.0904269551045</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>549.0904269551045</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436394</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>403.2461837293682</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1237.596475687546</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940405</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940405</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.38502577451</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353821</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.794137292997</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776221</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777442</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2486.020475935649</v>
+        <v>2422.1422975022</v>
       </c>
       <c r="U13" t="n">
-        <v>2207.587475188755</v>
+        <v>2143.709296755305</v>
       </c>
       <c r="V13" t="n">
-        <v>1920.631967059185</v>
+        <v>1856.753788625736</v>
       </c>
       <c r="W13" t="n">
-        <v>1648.605562645477</v>
+        <v>1584.727384212028</v>
       </c>
       <c r="X13" t="n">
-        <v>1403.213807978889</v>
+        <v>1339.33562954544</v>
       </c>
       <c r="Y13" t="n">
-        <v>1175.794137292997</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940405</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940405</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363478</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987281</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>633.668102581953</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>578.9364800031568</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>578.9364800031568</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113125</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881912</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2473.041003752036</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583903</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503607</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177151</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181363</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364786</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1470.973197539231</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277509</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510149</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423108</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4251.737835489029</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315498</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068554</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252391</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.44832012543</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442446</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376273</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787306</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366617</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.32502566627</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.0793854983024</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>776.5176739815273</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>610.63968118305</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>440.8816774337872</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1746233955434</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.003789281486</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.124342859941</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2172.691342113047</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1885.735833983477</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.709429569769</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.317674903181</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1140.89800421729</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883913</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716163</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407378</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="23">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>915.9519976190925</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>743.3902861023174</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>577.5122933038401</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>407.7542895545774</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008509</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.966900465231</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1335.190287023972</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1107.77061633808</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>3603.973621145286</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>3603.973621145286</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.973621145286</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>454.7008598460233</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>277.9938058077795</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>112.4025308336072</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6686,55 +6686,55 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
@@ -6743,7 +6743,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2177.511286811513</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7199,25 +7199,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
         <v>267.852115244952</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008509</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.966900465231</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127512</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.052675911533</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.910203094957</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.000418269401</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427696</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.358243836904</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601678</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033837</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410832</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981138</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814534</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773129</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526186</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710023</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583061</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900078</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833904</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244938</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.117154824248</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123902</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>837.1733001299889</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>664.6115886132138</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>498.7335958147366</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>328.9755920654738</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>328.9755920654738</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654738</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558484</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2585.097703913173</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T43" t="n">
-        <v>2339.218257491628</v>
+        <v>2313.79963505003</v>
       </c>
       <c r="U43" t="n">
-        <v>2060.785256744733</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="V43" t="n">
-        <v>1773.829748615164</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1501.803344201455</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1256.411589534868</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1028.991918848976</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.375184062125</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4533.079733112634</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4170.462783046461</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3765.607328457494</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3346.464865036805</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.674754547033</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>947.2320137580464</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>774.6703022412713</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>608.792309442794</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>439.0343056935313</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>262.3272516552875</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354646</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.5989800066002</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745613</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955474</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113119</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R46" t="n">
-        <v>2695.15641754123</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="S46" t="n">
-        <v>2695.15641754123</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2449.276971119686</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2170.843970372791</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1883.888462243221</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1611.862057829513</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1366.470303162925</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1139.050632477034</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,10 +8380,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>35.25505765581499</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388475738</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,19 +8614,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8696,7 +8696,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,16 +8927,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>935.0031416802861</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9182,7 +9182,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>513.4096169964332</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9884,19 +9884,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>801.4298400828725</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,22 +10592,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>973.8822356326336</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288205</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>268.0111327346218</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.995625886763719e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>197.1718905122115</v>
+        <v>107.2592358276476</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0349065174846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>120.4463752142703</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>178.3951296148068</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>216.2362286424012</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>124.3589898130752</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>128.46287890933</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>139.5921776627261</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790377</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>160.7958207444074</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>89.61600311981265</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>26.99333424003447</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>139.5921776627266</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>11.3810530784686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627299</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>553404.3698699041</v>
+        <v>563972.9718893002</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>553404.3698699041</v>
+        <v>565875.8719275715</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>557359.3106197824</v>
+        <v>580880.5104324687</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>557359.3106197823</v>
+        <v>580880.5104324687</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>565224.1925531856</v>
+        <v>580880.5104324687</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>580880.5104324687</v>
+        <v>580880.5104324688</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>580880.5104324687</v>
+        <v>580880.5104324686</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>580880.5104324688</v>
+        <v>580880.5104324687</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>573015.6284990654</v>
+        <v>580880.5104324687</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>557359.3106197823</v>
+        <v>580880.5104324686</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>415514.1729150665</v>
       </c>
       <c r="C2" t="n">
-        <v>415514.1729150666</v>
+        <v>415514.1729150665</v>
       </c>
       <c r="D2" t="n">
-        <v>415514.1729150665</v>
+        <v>415514.1729150667</v>
       </c>
       <c r="E2" t="n">
-        <v>391781.0209280492</v>
+        <v>408314.6277064479</v>
       </c>
       <c r="F2" t="n">
-        <v>391781.0209280493</v>
+        <v>408314.627706448</v>
       </c>
       <c r="G2" t="n">
-        <v>397309.4321605106</v>
+        <v>408314.627706448</v>
       </c>
       <c r="H2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064479</v>
       </c>
       <c r="I2" t="n">
         <v>408314.627706448</v>
@@ -26344,16 +26344,16 @@
         <v>408314.627706448</v>
       </c>
       <c r="M2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.6277064478</v>
       </c>
       <c r="N2" t="n">
         <v>408314.627706448</v>
       </c>
       <c r="O2" t="n">
-        <v>402786.2164739868</v>
+        <v>408314.6277064479</v>
       </c>
       <c r="P2" t="n">
-        <v>391781.0209280492</v>
+        <v>408314.6277064479</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501614</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.5955499828</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996337</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877249</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622336</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>163226.8987932458</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>65247.19221856655</v>
+        <v>68000.69828933277</v>
       </c>
       <c r="F4" t="n">
-        <v>65247.19221856655</v>
+        <v>68000.69828933275</v>
       </c>
       <c r="G4" t="n">
-        <v>66167.89355701636</v>
+        <v>68000.69828933277</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933277</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933279</v>
@@ -26445,19 +26445,19 @@
         <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933275</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933274</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933277</v>
       </c>
       <c r="O4" t="n">
-        <v>67079.996950883</v>
+        <v>68000.69828933274</v>
       </c>
       <c r="P4" t="n">
-        <v>65247.19221856655</v>
+        <v>68000.69828933274</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024202</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319802</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>14069.25787161868</v>
       </c>
       <c r="C6" t="n">
-        <v>156260.5585313286</v>
+        <v>113743.292418802</v>
       </c>
       <c r="D6" t="n">
-        <v>156260.5585313285</v>
+        <v>173137.4115506524</v>
       </c>
       <c r="E6" t="n">
-        <v>18659.4644097978</v>
+        <v>80217.35725089023</v>
       </c>
       <c r="F6" t="n">
-        <v>253014.4864318352</v>
+        <v>262572.46647194</v>
       </c>
       <c r="G6" t="n">
-        <v>249888.9827604018</v>
+        <v>262572.46647194</v>
       </c>
       <c r="H6" t="n">
-        <v>250192.9358313594</v>
+        <v>262572.46647194</v>
       </c>
       <c r="I6" t="n">
-        <v>262595.6908113227</v>
+        <v>262572.46647194</v>
       </c>
       <c r="J6" t="n">
-        <v>151581.2254663325</v>
+        <v>151558.0011269498</v>
       </c>
       <c r="K6" t="n">
-        <v>262595.6908113227</v>
+        <v>209526.6118331675</v>
       </c>
       <c r="L6" t="n">
-        <v>262595.6908113227</v>
+        <v>253180.1647453177</v>
       </c>
       <c r="M6" t="n">
-        <v>66994.51152825511</v>
+        <v>110372.2955339523</v>
       </c>
       <c r="N6" t="n">
-        <v>262595.6908113227</v>
+        <v>262572.46647194</v>
       </c>
       <c r="O6" t="n">
-        <v>259391.9834399058</v>
+        <v>262572.46647194</v>
       </c>
       <c r="P6" t="n">
-        <v>253014.4864318352</v>
+        <v>262572.46647194</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,22 +27012,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939348</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760677</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939348</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939348</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760677</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>399.9667529740393</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>92.27936154326909</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>11.25323832560895</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>211.6283515001466</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>271.1721799611574</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>73.13130200746656</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>53.71176510342556</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>180.332891587074</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91.86674006413773</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>370.1803477317474</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>81.99110749770145</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.18171628293734e-12</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-3.453686889477613e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28378,10 +28378,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-3.453686889477613e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-3.453686889477613e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28390,10 +28390,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-3.453686889477613e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.211533045023514e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.216253151832116e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -30210,7 +30210,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>-4.933230100285637e-12</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-1.139538119038411e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-7.855553040753455e-13</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-4.933230100285637e-12</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>35.25505765581499</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388475738</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.4542274390807</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,16 +35647,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>935.0031416802861</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.12511836456</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35902,7 +35902,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>513.4096169964332</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,19 +36604,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>801.4298400828725</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>973.8822356326336</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37470,13 +37470,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288205</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,16 +37944,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165061</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743907575</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38184,7 +38184,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512945</v>
